--- a/admin-app/public/Leaderboard_Template.xlsx
+++ b/admin-app/public/Leaderboard_Template.xlsx
@@ -1,50 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uiceduph-my.sharepoint.com/personal/nmapantas_2022000461_uic_edu_ph/Documents/Desktop/Battle-of-Platoons/admin-app/public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D9C596AF-5FFF-450C-8A78-12927C4615C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="README" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>leader_name</t>
+  </si>
+  <si>
+    <t>Leads</t>
+  </si>
+  <si>
+    <t>Payins</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>Najeeb Mapantas</t>
+  </si>
+  <si>
+    <t>Battle of Platoons — Upload Template</t>
+  </si>
+  <si>
+    <t>Sheet name must be: Daily Data</t>
+  </si>
+  <si>
+    <t>Columns required: Date, agent_id OR leader_name, Leads, Payins, Sales</t>
+  </si>
+  <si>
+    <t>Preferred identifier: agent_id (dash format, e.g., daniel-caesar).</t>
+  </si>
+  <si>
+    <t>leader_name is only a fallback and must match exactly one agent name.</t>
+  </si>
+  <si>
+    <t>Do not include depot/company/platoon columns; these come from master data (Participants).</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F2A7A"/>
+        <fgColor rgb="FF1F2A7A"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,84 +112,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,122 +418,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>agent_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>leader_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Leads</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Payins</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>daniel-caesar</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Daniel Caesar</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>najeeb-mapantas</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Najeeb Mapantas</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E2">
         <v>25000</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation sqref="A2:A1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="date" operator="between">
+    <dataValidation type="date" sqref="A2:A999" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>DATE(2000,1,1)</formula1>
       <formula2>DATE(2100,12,31)</formula2>
     </dataValidation>
-    <dataValidation sqref="D2:E1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="whole" operator="greaterThanOrEqual">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" sqref="C2:D999" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation sqref="F2:F1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="decimal" operator="greaterThanOrEqual">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" sqref="E2:E999" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -550,62 +486,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="90" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Battle of Platoons — Upload Template</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sheet name must be: Daily Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Columns required: Date, agent_id OR leader_name, Leads, Payins, Sales</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Preferred identifier: agent_id (dash format, e.g., daniel-caesar).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>leader_name is only a fallback and must match exactly one agent name.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Do not include depot/company/platoon columns; these come from master data (Participants).</t>
-        </is>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
